--- a/Documentation/BACKLOG.xlsx
+++ b/Documentation/BACKLOG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twonk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\CSE360-Team-24\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>3rd week</t>
-  </si>
-  <si>
-    <t>4th week</t>
   </si>
   <si>
     <t>1st week</t>
@@ -166,8 +163,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -175,16 +178,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,579 +467,579 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" customWidth="1"/>
-    <col min="19" max="19" width="13.26953125" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
       <c r="Q3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
       <c r="Q5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
       <c r="Q6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
       <c r="Q7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="S8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="S9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
       <c r="Q10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="S10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
       <c r="Q11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
       <c r="Q12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
       <c r="Q13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
       <c r="Q15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
       <c r="Q16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="R17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S17" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>30</v>
+      <c r="S18" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B2:P2"/>
     <mergeCell ref="B17:P17"/>
     <mergeCell ref="B18:P18"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B16:P16"/>
     <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B9:P9"/>
     <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B8:P8"/>
     <mergeCell ref="B5:P5"/>
     <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
     <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B8:P8"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:P11"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="B2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/BACKLOG.xlsx
+++ b/Documentation/BACKLOG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\CSE360-Team-24\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twonk\Desktop\CSE360-Team-24\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>NO.</t>
-  </si>
-  <si>
-    <t>Planned</t>
   </si>
 </sst>
 </file>
@@ -169,12 +166,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -182,6 +173,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -467,59 +464,59 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" customWidth="1"/>
+    <col min="19" max="19" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
@@ -530,27 +527,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
@@ -558,27 +555,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
       <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
@@ -586,27 +583,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
       <c r="Q5" s="1" t="s">
         <v>18</v>
       </c>
@@ -617,27 +614,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
       <c r="Q6" s="1" t="s">
         <v>18</v>
       </c>
@@ -648,27 +645,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
       <c r="Q7" s="1" t="s">
         <v>18</v>
       </c>
@@ -679,27 +676,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="1" t="s">
         <v>18</v>
       </c>
@@ -710,27 +707,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="1" t="s">
         <v>18</v>
       </c>
@@ -741,27 +738,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
       <c r="Q10" s="1" t="s">
         <v>18</v>
       </c>
@@ -772,27 +769,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
       <c r="Q11" s="1" t="s">
         <v>18</v>
       </c>
@@ -803,27 +800,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
       <c r="Q12" s="1" t="s">
         <v>19</v>
       </c>
@@ -831,30 +828,30 @@
         <v>23</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
       <c r="Q13" s="1" t="s">
         <v>19</v>
       </c>
@@ -862,30 +859,30 @@
         <v>23</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
       <c r="Q14" s="1" t="s">
         <v>19</v>
       </c>
@@ -893,30 +890,30 @@
         <v>24</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
       <c r="Q15" s="1" t="s">
         <v>19</v>
       </c>
@@ -924,30 +921,30 @@
         <v>24</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
       <c r="Q16" s="1" t="s">
         <v>19</v>
       </c>
@@ -955,30 +952,30 @@
         <v>24</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
       <c r="Q17" s="1" t="s">
         <v>19</v>
       </c>
@@ -986,30 +983,30 @@
         <v>24</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
       <c r="Q18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1017,11 +1014,13 @@
         <v>25</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="B3:P3"/>
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B17:P17"/>
@@ -1038,8 +1037,6 @@
     <mergeCell ref="B12:P12"/>
     <mergeCell ref="B13:P13"/>
     <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
